--- a/Analytics/D1/TGMXcorners_d1.xlsx
+++ b/Analytics/D1/TGMXcorners_d1.xlsx
@@ -76,58 +76,58 @@
     <t>18</t>
   </si>
   <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
     <t>Bayern Munich</t>
   </si>
   <si>
     <t>Heidenheim</t>
   </si>
   <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
     <t>Werder Bremen</t>
   </si>
   <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
     <t>Union Berlin</t>
   </si>
   <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
-  </si>
-  <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
+    <t>St Pauli</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -136,7 +136,7 @@
     <t>SUM("TTGMXcorners")</t>
   </si>
   <si>
-    <t>SUM("TTGMXcorners") / 34</t>
+    <t>SUM("TTGMXcorners") / 9</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>34936.0</v>
+        <v>11619.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>34045.0</v>
+        <v>10621.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>32164.0</v>
+        <v>10240.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>30241.0</v>
+        <v>10134.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>29949.0</v>
+        <v>9585.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>28707.0</v>
+        <v>9229.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>28555.0</v>
+        <v>8779.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>28128.0</v>
+        <v>8392.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>27540.0</v>
+        <v>7588.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>27106.0</v>
+        <v>6621.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>26007.0</v>
+        <v>6056.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>25020.0</v>
+        <v>5503.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>23644.0</v>
+        <v>5245.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>23455.0</v>
+        <v>4422.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>22613.0</v>
+        <v>4253.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>21948.0</v>
+        <v>3579.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>20050.0</v>
+        <v>2594.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>19685.0</v>
+        <v>1220.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>39538.0</v>
+        <v>11377.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>35785.0</v>
+        <v>9774.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>33827.0</v>
+        <v>9706.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>32873.0</v>
+        <v>9261.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>32291.0</v>
+        <v>9066.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>28714.0</v>
+        <v>7608.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>27847.0</v>
+        <v>7225.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>26863.0</v>
+        <v>6938.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>26461.0</v>
+        <v>6695.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>25016.0</v>
+        <v>6559.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>24509.0</v>
+        <v>6341.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>24116.0</v>
+        <v>6332.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>23305.0</v>
+        <v>5458.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>22800.0</v>
+        <v>5066.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>21033.0</v>
+        <v>4968.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>20810.0</v>
+        <v>4926.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>19900.0</v>
+        <v>4750.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>18105.0</v>
+        <v>3630.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>67809.0</v>
+        <v>18490.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1994.3823529411766</v>
+        <v>2054.4444444444443</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>67666.0</v>
+        <v>17951.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1990.1764705882354</v>
+        <v>1994.5555555555557</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>65991.0</v>
+        <v>17559.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1940.9117647058824</v>
+        <v>1951.0</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>65734.0</v>
+        <v>17294.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1933.3529411764705</v>
+        <v>1921.5555555555557</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>56845.0</v>
+        <v>16622.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1671.9117647058824</v>
+        <v>1846.888888888889</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>56402.0</v>
+        <v>16395.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1658.8823529411766</v>
+        <v>1821.6666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>56254.0</v>
+        <v>15926.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1654.5294117647059</v>
+        <v>1769.5555555555557</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>55746.0</v>
+        <v>14884.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1639.5882352941176</v>
+        <v>1653.7777777777778</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>54357.0</v>
+        <v>13870.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1598.735294117647</v>
+        <v>1541.111111111111</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>53723.0</v>
+        <v>13850.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1580.0882352941176</v>
+        <v>1538.888888888889</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>51883.0</v>
+        <v>13845.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1525.9705882352941</v>
+        <v>1538.3333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -801,10 +801,10 @@
         <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>49074.0</v>
+        <v>13319.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1443.3529411764705</v>
+        <v>1479.888888888889</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>48153.0</v>
+        <v>12751.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1416.264705882353</v>
+        <v>1416.7777777777778</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>48139.0</v>
+        <v>11647.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1415.8529411764705</v>
+        <v>1294.111111111111</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>44112.0</v>
+        <v>10429.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1297.4117647058824</v>
+        <v>1158.7777777777778</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>42990.0</v>
+        <v>10138.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1264.4117647058824</v>
+        <v>1126.4444444444443</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>42758.0</v>
+        <v>8828.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1257.5882352941176</v>
+        <v>980.8888888888889</v>
       </c>
     </row>
     <row r="19">
@@ -885,10 +885,10 @@
         <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>39950.0</v>
+        <v>7562.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1175.0</v>
+        <v>840.2222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D1/TGMXcorners_d1.xlsx
+++ b/Analytics/D1/TGMXcorners_d1.xlsx
@@ -79,55 +79,55 @@
     <t>Stuttgart</t>
   </si>
   <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
     <t>Leverkusen</t>
   </si>
   <si>
     <t>Hoffenheim</t>
   </si>
   <si>
-    <t>Dortmund</t>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
   </si>
   <si>
     <t>Augsburg</t>
   </si>
   <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
+    <t>Bayern Munich</t>
   </si>
   <si>
     <t>Ein Frankfurt</t>
   </si>
   <si>
+    <t>Mainz</t>
+  </si>
+  <si>
     <t>Bochum</t>
   </si>
   <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
     <t>Werder Bremen</t>
   </si>
   <si>
     <t>RB Leipzig</t>
   </si>
   <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
     <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>St Pauli</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>11619.0</v>
+        <v>18626.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>10621.0</v>
+        <v>13656.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>10240.0</v>
+        <v>13630.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>10134.0</v>
+        <v>13586.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>9585.0</v>
+        <v>12243.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>9229.0</v>
+        <v>12041.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>8779.0</v>
+        <v>11686.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>8392.0</v>
+        <v>11075.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>7588.0</v>
+        <v>10709.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>6621.0</v>
+        <v>10553.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>6056.0</v>
+        <v>10253.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>5503.0</v>
+        <v>9123.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>5245.0</v>
+        <v>8704.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>4422.0</v>
+        <v>8475.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>4253.0</v>
+        <v>8254.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>3579.0</v>
+        <v>7619.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>2594.0</v>
+        <v>4300.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>1220.0</v>
+        <v>3730.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>11377.0</v>
+        <v>17263.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>9774.0</v>
+        <v>14119.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>9706.0</v>
+        <v>13490.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>9261.0</v>
+        <v>13207.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>9066.0</v>
+        <v>12209.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>7608.0</v>
+        <v>12077.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>7225.0</v>
+        <v>11641.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>6938.0</v>
+        <v>11047.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>6695.0</v>
+        <v>10431.0</v>
       </c>
     </row>
     <row r="11">
@@ -523,7 +523,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>6559.0</v>
+        <v>9590.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>6341.0</v>
+        <v>9342.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>6332.0</v>
+        <v>9325.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>5458.0</v>
+        <v>9118.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>5066.0</v>
+        <v>7739.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>4968.0</v>
+        <v>7646.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>4926.0</v>
+        <v>7243.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>4750.0</v>
+        <v>7206.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>3630.0</v>
+        <v>5570.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>18490.0</v>
+        <v>30267.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2054.4444444444443</v>
+        <v>3363.0</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>17951.0</v>
+        <v>26386.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1994.5555555555557</v>
+        <v>2931.777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>17559.0</v>
+        <v>25733.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1951.0</v>
+        <v>2859.222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -689,10 +689,10 @@
         <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>17294.0</v>
+        <v>24828.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1921.5555555555557</v>
+        <v>2758.6666666666665</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>16622.0</v>
+        <v>23763.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1846.888888888889</v>
+        <v>2640.3333333333335</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>16395.0</v>
+        <v>23460.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1821.6666666666667</v>
+        <v>2606.6666666666665</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>15926.0</v>
+        <v>22748.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1769.5555555555557</v>
+        <v>2527.5555555555557</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>14884.0</v>
+        <v>21302.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1653.7777777777778</v>
+        <v>2366.8888888888887</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>13870.0</v>
+        <v>20684.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1541.111111111111</v>
+        <v>2298.222222222222</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>13850.0</v>
+        <v>19878.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1538.888888888889</v>
+        <v>2208.6666666666665</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>13845.0</v>
+        <v>19301.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1538.3333333333333</v>
+        <v>2144.5555555555557</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>13319.0</v>
+        <v>19247.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1479.888888888889</v>
+        <v>2138.5555555555557</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>12751.0</v>
+        <v>19156.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1416.7777777777778</v>
+        <v>2128.4444444444443</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>11647.0</v>
+        <v>19135.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1294.111111111111</v>
+        <v>2126.1111111111113</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>10429.0</v>
+        <v>18318.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1158.7777777777778</v>
+        <v>2035.3333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -857,10 +857,10 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>10138.0</v>
+        <v>17209.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1126.4444444444443</v>
+        <v>1912.111111111111</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>8828.0</v>
+        <v>13642.0</v>
       </c>
       <c r="D18" t="n">
-        <v>980.8888888888889</v>
+        <v>1515.7777777777778</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>7562.0</v>
+        <v>11469.0</v>
       </c>
       <c r="D19" t="n">
-        <v>840.2222222222222</v>
+        <v>1274.3333333333333</v>
       </c>
     </row>
   </sheetData>
